--- a/tmp/test.xlsx
+++ b/tmp/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>IBAN</t>
   </si>
@@ -35,73 +35,13 @@
     <t>Beschrijving</t>
   </si>
   <si>
-    <t>NL69KCTY1443051037</t>
-  </si>
-  <si>
-    <t>2018-02-28 10:58:55</t>
-  </si>
-  <si>
-    <t>Tobin Fay</t>
-  </si>
-  <si>
-    <t>9.99EUR one time fee</t>
-  </si>
-  <si>
-    <t>NL69PHYY0168597476</t>
-  </si>
-  <si>
-    <t>Burdette Pfeffer</t>
-  </si>
-  <si>
-    <t>NL78XQJI5298999364</t>
-  </si>
-  <si>
-    <t>Mr. Jorge O'Kon V</t>
-  </si>
-  <si>
-    <t>NL62NGFW3921183313</t>
-  </si>
-  <si>
-    <t>Kathleen Herzog</t>
-  </si>
-  <si>
-    <t>NL29PSOY4020366554</t>
-  </si>
-  <si>
-    <t>Leilani Abshire</t>
-  </si>
-  <si>
-    <t>NL48SGEL0589700414</t>
-  </si>
-  <si>
-    <t>Reuben Lesch</t>
-  </si>
-  <si>
-    <t>NL07BSGT1660347114</t>
-  </si>
-  <si>
-    <t>2018-02-28 10:58:56</t>
-  </si>
-  <si>
-    <t>Dustin Spencer</t>
-  </si>
-  <si>
-    <t>NL05RVMG4779578052</t>
-  </si>
-  <si>
-    <t>Dahlia Mayert MD</t>
-  </si>
-  <si>
-    <t>NL19CGHS2783852493</t>
-  </si>
-  <si>
-    <t>Ms. Dayna Witting</t>
-  </si>
-  <si>
-    <t>NL03WYEM1289526455</t>
-  </si>
-  <si>
-    <t>Mrs. Alivia Howe Jr.</t>
+    <t>2018-03-01 15:59:23</t>
+  </si>
+  <si>
+    <t>userone</t>
+  </si>
+  <si>
+    <t>9.99EUR Eenmalige betaling</t>
   </si>
 </sst>
 </file>
@@ -440,7 +380,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,203 +409,23 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2">
         <v>9.99</v>
       </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>9.99</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>9.99</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>9.99</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>9.99</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>9.99</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>9.99</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9">
-        <v>9.99</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10">
-        <v>9.99</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <v>9.99</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
